--- a/python.xlsx
+++ b/python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="250">
   <si>
     <t>Sheet 1: Profit and Loss Statement (2021-2023)</t>
   </si>
@@ -1712,13 +1712,22 @@
       </rPr>
       <t> with these formulas pre-loaded? Let me know!</t>
     </r>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1727,31 +1736,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -1838,6 +1828,60 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1847,7 +1891,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1873,95 +1917,927 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1972,6 +2848,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+  <autoFilter ref="A1:D16"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sheet 1: Profit and Loss Statement (2021-2023)" dataDxfId="20"/>
+    <tableColumn id="2" name="Column1" dataDxfId="19"/>
+    <tableColumn id="3" name="Column2" dataDxfId="18"/>
+    <tableColumn id="4" name="Column3" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A18:D40" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="A18:D40"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sheet 2: Balance Sheet (2021-2023)" dataDxfId="13"/>
+    <tableColumn id="2" name="Column1" dataDxfId="12"/>
+    <tableColumn id="3" name="Column2" dataDxfId="11"/>
+    <tableColumn id="4" name="Column3" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A41:D57" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A41:D57"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Sheet 3: Cash Flow Statement (2021-2023)" dataDxfId="5"/>
+    <tableColumn id="2" name="Column1" dataDxfId="4"/>
+    <tableColumn id="3" name="Column2" dataDxfId="3"/>
+    <tableColumn id="4" name="Column3" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2239,696 +3154,734 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1"/>
     <col min="2" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="155.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="24">
         <v>5000000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="24">
         <v>6200000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="37">
         <v>7500000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="24">
         <v>-2000000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="24">
         <v>-2500000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="37">
         <v>-3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="27">
         <v>3000000</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="27">
         <v>3700000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="38">
         <v>4500000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="24">
         <v>-800000</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="24">
         <v>-900000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="37">
         <v>-1100000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="24">
         <v>-200000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="24">
         <v>-250000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="37">
         <v>-300000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="24">
         <v>-150000</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="24">
         <v>-160000</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="37">
         <v>-180000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="27">
         <v>1850000</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="27">
         <v>2390000</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="38">
         <v>2920000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="24">
         <v>-100000</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="24">
         <v>-120000</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="37">
         <v>-150000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="27">
         <v>1750000</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="27">
         <v>2270000</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="38">
         <v>2770000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="24">
         <v>-50000</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="24">
         <v>-60000</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="37">
         <v>-70000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="27">
         <v>1700000</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="27">
         <v>2210000</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="38">
         <v>2700000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="24">
         <v>-340000</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="24">
         <v>-442000</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="37">
         <v>-540000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="44">
         <v>1360000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="44">
         <v>1768000</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="45">
         <v>2160000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="120.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="24">
         <v>500000</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="24">
         <v>700000</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="24">
         <v>900000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="24">
         <v>300000</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="24">
         <v>400000</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="24">
         <v>500000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="24">
         <v>200000</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="24">
         <v>250000</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="24">
         <v>300000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="29">
         <v>1000000</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="29">
         <v>1200000</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="29">
         <v>1500000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="50">
         <v>2000000</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="50">
         <v>2550000</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="51">
         <v>3200000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="24">
         <v>150000</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="24">
         <v>180000</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="24">
         <v>200000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="24">
         <v>100000</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="24">
         <v>120000</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="24">
         <v>150000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="29">
         <v>500000</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="29">
         <v>450000</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="29">
         <v>400000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="50">
         <v>750000</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="50">
         <v>750000</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="51">
         <v>750000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="24">
         <v>1000000</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="24">
         <v>1200000</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="24">
         <v>1500000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="24">
         <v>250000</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="24">
         <v>600000</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="24">
         <v>950000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="46">
         <v>1250000</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="46">
         <v>1800000</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="46">
         <v>2450000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:4" s="21" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="54">
         <v>2000000</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="54">
         <v>2550000</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="55">
         <v>3200000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="138" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+    </row>
+    <row r="41" spans="1:4" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="B41" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:4" s="59" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="24">
         <v>1360000</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="24">
         <v>1768000</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="24">
         <v>2160000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="24">
         <v>100000</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="24">
         <v>120000</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="24">
         <v>150000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="29">
         <v>-50000</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="29">
         <v>-80000</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="29">
         <v>-100000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:4" s="21" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="54">
         <v>1410000</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="54">
         <v>1808000</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="55">
         <v>2210000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:4" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+    </row>
+    <row r="49" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="29">
         <v>-300000</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="29">
         <v>-400000</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="29">
         <v>-500000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:4" s="21" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="54">
         <v>-300000</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="54">
         <v>-400000</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="55">
         <v>-500000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="24">
         <v>-50000</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="24">
         <v>-50000</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="24">
         <v>-50000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="29">
         <v>-200000</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="29">
         <v>-250000</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="29">
         <v>-300000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:4" s="21" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="54">
         <v>-250000</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="54">
         <v>-300000</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="55">
         <v>-350000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="61">
         <v>860000</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="61">
         <v>1108000</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="61">
         <v>1360000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="24">
         <v>500000</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="24">
         <v>700000</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="24">
         <v>900000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="46">
         <v>700000</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="46">
         <v>900000</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="46">
         <v>1200000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2936,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,1254 +3904,1255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="5">
         <v>2021</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="5">
         <v>2022</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="5">
         <v>2023</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="7">
         <v>0.6</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="8">
         <v>0.59699999999999998</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="7">
         <v>0.6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="7">
         <v>0.35</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="8">
         <v>0.36599999999999999</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="8">
         <v>0.36899999999999999</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="8">
         <v>0.27200000000000002</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="8">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="8">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="8">
         <v>1.0880000000000001</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="8">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="8">
         <v>0.88200000000000001</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="5">
         <v>2021</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="5">
         <v>2022</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="5">
         <v>2023</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="5">
         <v>2021</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="5">
         <v>2022</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="5">
         <v>2023</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="8">
         <v>0.111</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="8">
         <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="8">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <v>2024</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>2025</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>2026</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>2027</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>2028</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>2024</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>2</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>0.90900000000000003</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="6">
         <v>1.82</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <v>2025</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>2.35</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="6">
         <v>1.94</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>2026</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>2.8</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>0.751</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="6">
         <v>2.1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="1">
         <v>2027</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>3.25</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <v>0.68300000000000005</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="6">
         <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>2028</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>3.8</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>0.621</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="6">
         <v>2.36</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>55.8</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>0.621</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="6">
         <v>34.659999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B85" s="21" t="e">
+      <c r="B85" s="14" t="e">
         <f xml:space="preserve"> Gross Profit / Revenue</f>
         <v>#NAME?</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="14" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="21" t="e">
+      <c r="B86" s="14" t="e">
         <f xml:space="preserve"> Operating Income / Revenue</f>
         <v>#NAME?</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="81.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="21" t="e">
+      <c r="B87" s="14" t="e">
         <f xml:space="preserve"> Net Income / Revenue</f>
         <v>#NAME?</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="21" t="e">
+      <c r="B91" s="14" t="e">
         <f xml:space="preserve"> Current Assets / Current Liabilities</f>
         <v>#NAME?</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="21" t="e">
+      <c r="B92" s="14" t="e">
         <f xml:space="preserve"> (Cash + Accounts Receivable) / Current Liabilities</f>
         <v>#NAME?</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="14" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="17" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="9" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="24" t="e">
+      <c r="A109" s="17" t="e">
         <f xml:space="preserve"> (Ending Value / Beginning Value)^(1/Years) - 1</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="9" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="18" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="23" t="s">
+      <c r="A120" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="24" t="s">
+      <c r="A121" s="17" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="18" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="23" t="s">
+      <c r="A129" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="24" t="s">
+      <c r="A130" s="17" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="17"/>
+      <c r="A132" s="10"/>
     </row>
     <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="26" t="s">
+      <c r="A133" s="19" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26" t="s">
+      <c r="A134" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="9" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="18" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="24" t="s">
+      <c r="A141" s="17" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="16" t="s">
+      <c r="A142" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="16" t="s">
+      <c r="A143" s="9" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="16" t="s">
+      <c r="A144" s="9" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="19" t="s">
+      <c r="A145" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
+      <c r="A147" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="23" t="s">
+      <c r="A148" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="24" t="s">
+      <c r="A149" s="17" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="9" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="18" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="22" t="s">
+      <c r="A153" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="23" t="s">
+      <c r="A154" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="23" t="s">
+      <c r="A155" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="24" t="s">
+      <c r="A156" s="17" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="17" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="16" t="s">
+      <c r="A158" s="9" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="18" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="20" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="9" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="9" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="22" t="s">
+      <c r="A164" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="23" t="s">
+      <c r="A165" s="16" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="24" t="s">
+      <c r="A167" s="17" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="16" t="s">
+      <c r="A168" s="9" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="16" t="s">
+      <c r="A171" s="9" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="16" t="s">
+      <c r="A172" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="16" t="s">
+      <c r="A173" s="9" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="2" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/python.xlsx
+++ b/python.xlsx
@@ -3154,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
